--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Façade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Flyweight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +157,11 @@
   <si>
     <t>装饰
 Decorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观
+Facade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,13 +628,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -644,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -668,63 +669,63 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -732,10 +733,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -743,10 +744,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -755,7 +756,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -764,7 +765,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Flyweight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Proxy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +158,11 @@
   <si>
     <t>外观
 Facade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>享元
+Flyweight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
@@ -628,13 +629,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -645,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -669,52 +670,52 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -722,21 +723,21 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -744,10 +745,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -756,7 +757,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -765,7 +766,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Proxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chain of Responsibility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +159,11 @@
   <si>
     <t>享元
 Flyweight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理
+Proxy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,9 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -629,13 +628,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -646,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -670,52 +669,52 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -723,10 +722,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -734,21 +733,21 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -757,7 +756,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -766,7 +765,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chain of Responsibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Command</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +160,11 @@
   <si>
     <t>代理
 Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责链
+Chain of Responsibility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -628,13 +631,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -645,10 +648,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -669,52 +672,52 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -722,10 +725,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -733,10 +736,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -744,10 +747,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -756,7 +759,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -765,7 +768,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Iterator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +161,11 @@
   <si>
     <t>职责链
 Chain of Responsibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令
+Command</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,13 +632,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -648,10 +649,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -672,52 +673,52 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -725,10 +726,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -736,10 +737,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -747,10 +748,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -759,7 +760,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -768,7 +769,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Interpreter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Template Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +162,11 @@
   <si>
     <t>命令
 Command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释器
+Interpreter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,13 +633,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -646,16 +647,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -664,61 +665,61 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -726,10 +727,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -737,10 +738,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -748,10 +749,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -760,7 +761,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -769,7 +770,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iterator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mediator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +163,11 @@
   <si>
     <t>解释器
 Interpreter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器
+Iterator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,13 +634,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -650,13 +651,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -674,52 +675,52 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -727,10 +728,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -738,10 +739,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -749,10 +750,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -761,7 +762,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -770,7 +771,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mediator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Memento</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,6 +164,11 @@
   <si>
     <t>迭代器
 Iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中介者
+Mediator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,13 +635,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -651,13 +652,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -675,52 +676,52 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -728,10 +729,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -739,10 +740,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -750,10 +751,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -762,7 +763,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -771,7 +772,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Memento</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Observer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,11 @@
   <si>
     <t>中介者
 Mediator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录
+Memento</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,13 +636,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -652,13 +653,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -676,52 +677,52 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -729,10 +730,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -740,10 +741,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -751,10 +752,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -763,7 +764,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -772,7 +773,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Observer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>State</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +166,11 @@
   <si>
     <t>备忘录
 Memento</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察者
+Observer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,13 +637,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -653,13 +654,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -677,52 +678,52 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -730,10 +731,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -741,10 +742,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -752,10 +753,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -764,7 +765,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -773,7 +774,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Strategy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,11 @@
   <si>
     <t>观察者
 Observer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态
+State</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,13 +638,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -654,13 +655,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -678,52 +679,52 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -731,10 +732,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -742,10 +743,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -753,10 +754,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -765,7 +766,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -774,7 +775,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Visitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,11 @@
   <si>
     <t>状态
 State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略
+Strategy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,13 +639,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -655,13 +656,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -679,52 +680,52 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -732,10 +733,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -743,10 +744,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -754,19 +755,19 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -775,7 +776,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Template Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类
 Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +169,11 @@
   <si>
     <t>策略
 Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板方法
+Template Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,13 +640,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -653,79 +654,79 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -733,10 +734,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -744,10 +745,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -755,10 +756,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -767,7 +768,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -776,7 +777,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Visitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抽象工厂
 Abstract Factory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +170,11 @@
   <si>
     <t>模板方法
 Template Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问者
+Visitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,13 +641,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -657,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -672,7 +673,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -681,52 +682,52 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -734,10 +735,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -745,10 +746,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -756,10 +757,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -768,16 +769,16 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
